--- a/metadata_db.xlsx
+++ b/metadata_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusolpark/Desktop/Modular-Mouse-Chamber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1859C1C8-19C7-B04E-B316-FC97B2501C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA061E-4879-BA4C-A9F4-FE0E3721738C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="460" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{83EA6AEC-5252-C040-B607-525948BB8D29}"/>
+    <workbookView xWindow="2180" yWindow="860" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{83EA6AEC-5252-C040-B607-525948BB8D29}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>testexp_1</t>
+  </si>
+  <si>
+    <t>testexp_2</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D087A2-47C3-574F-96FF-594B5D6A789E}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,6 +494,11 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
